--- a/test_types.xlsx
+++ b/test_types.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" showInkAnnotation="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="14900" windowWidth="25600" xWindow="6200" yWindow="2220"/>
+    <workbookView tabRatio="500" windowHeight="14904" windowWidth="25596" xWindow="6204" yWindow="2220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -19,51 +24,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>IntCol</t>
-  </si>
-  <si>
-    <t>FloatCol</t>
-  </si>
-  <si>
-    <t>BoolCol</t>
-  </si>
-  <si>
-    <t>StrCol</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Str2Col</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>DateCol</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
+  <si>
+    <t>Username1</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>Username2</t>
+  </si>
+  <si>
+    <t>Username3</t>
+  </si>
+  <si>
+    <t>Username4</t>
+  </si>
+  <si>
+    <t>Username5</t>
+  </si>
+  <si>
+    <t>Username6</t>
+  </si>
+  <si>
+    <t>Username7</t>
+  </si>
+  <si>
+    <t>Username8</t>
+  </si>
+  <si>
+    <t>Username9</t>
+  </si>
+  <si>
+    <t>Username10</t>
+  </si>
+  <si>
+    <t>Username11</t>
+  </si>
+  <si>
+    <t>Username12</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>Password3</t>
+  </si>
+  <si>
+    <t>Password4</t>
+  </si>
+  <si>
+    <t>Password5</t>
+  </si>
+  <si>
+    <t>Password6</t>
+  </si>
+  <si>
+    <t>Password7</t>
+  </si>
+  <si>
+    <t>Password8</t>
+  </si>
+  <si>
+    <t>Password9</t>
+  </si>
+  <si>
+    <t>Password10</t>
+  </si>
+  <si>
+    <t>Password11</t>
+  </si>
+  <si>
+    <t>Password12</t>
   </si>
   <si>
     <t>PASS</t>
@@ -96,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,20 +136,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,135 +499,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" style="2" width="10.83203125" collapsed="true"/>
+    <col min="6" max="6" style="2" width="10.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.25</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2.25</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>-3</v>
-      </c>
-      <c r="B4">
-        <v>1.83</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1.92</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
-        <v>41622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>5.0000000000000003E-10</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42077</v>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
